--- a/Question_One/Number One.xlsx
+++ b/Question_One/Number One.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47564F75-FA5E-44A6-8C44-5DD712DE7B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AF1829-1A05-4067-81CB-A8E90867610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +89,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -125,9 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,9 +203,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +238,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +290,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,31 +507,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -491,23 +542,23 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">RANDBETWEEN(1, 15)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">B2</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(1, 8)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">MAX(C2, F1)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">D2 + E2</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <f ca="1">E2 - C2</f>
@@ -515,7 +566,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">F2 - C2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -528,23 +579,23 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B21" ca="1" si="1">RANDBETWEEN(1, 15)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">C2 + B3</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D21" ca="1" si="2">RANDBETWEEN(1, 8)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">MAX(C3, F2)</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F21" ca="1" si="3">D3 + E3</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G21" ca="1" si="4">E3 - C3</f>
@@ -552,11 +603,11 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H21" ca="1" si="5">F3 - C3</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
         <f ca="1">MAX(0, C3 - F2)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -566,23 +617,23 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C21" ca="1" si="6">C3 + B4</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E21" ca="1" si="7">MAX(C4, F3)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -590,11 +641,11 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I21" ca="1" si="8">MAX(0, C4 - F3)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -604,23 +655,23 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -628,11 +679,11 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -642,35 +693,35 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,31 +731,31 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -718,23 +769,23 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -742,11 +793,11 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -756,27 +807,27 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -784,7 +835,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,35 +845,35 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -832,23 +883,23 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -856,11 +907,11 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -870,23 +921,23 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -894,11 +945,11 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -908,23 +959,23 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -932,11 +983,11 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -946,23 +997,23 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -970,11 +1021,11 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -984,27 +1035,27 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="5"/>
@@ -1022,11 +1073,11 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="2"/>
@@ -1034,11 +1085,11 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -1050,7 +1101,7 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1060,35 +1111,35 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1098,35 +1149,35 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,23 +1187,23 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -1160,11 +1211,11 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1174,19 +1225,19 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -1194,15 +1245,15 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1212,15 +1263,15 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -1228,15 +1279,15 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="8"/>
@@ -1244,42 +1295,43 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <f ca="1">AVERAGE(H2:H21)</f>
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <f ca="1">MAX(0, 180 - SUM(D2:D21))</f>
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <f ca="1">SUM(I2:I21)/F21*100</f>
-        <v>35.031847133757957</v>
+        <v>38.815789473684212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1287,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,13 +1351,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1316,11 +1368,11 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">Sheet1!B23</f>
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">Sheet1!B26</f>
-        <v>35.031847133757957</v>
+        <v>38.815789473684212</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1330,10 +1382,10 @@
       </c>
       <c r="B3" s="1">
         <f t="dataTable" ref="B3:C51" dt2D="0" dtr="0" r1="D2" ca="1"/>
-        <v>6.05</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C3" s="1">
-        <v>36.363636363636367</v>
+        <v>52.604166666666664</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,10 +1394,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>4.7</v>
+        <v>5.35</v>
       </c>
       <c r="C4" s="1">
-        <v>45.508982035928142</v>
+        <v>47.204968944099377</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,10 +1406,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4.3499999999999996</v>
+        <v>6.9</v>
       </c>
       <c r="C5" s="1">
-        <v>49.101796407185624</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,10 +1418,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="C6" s="1">
-        <v>42.622950819672127</v>
+        <v>57.894736842105267</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,10 +1430,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>5.35</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>36.196319018404907</v>
+        <v>45.283018867924532</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,10 +1442,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>5.35</v>
+        <v>5.5</v>
       </c>
       <c r="C8" s="1">
-        <v>38.775510204081634</v>
+        <v>41.975308641975303</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="C9" s="1">
-        <v>37.423312883435585</v>
+        <v>41.899441340782126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="C10" s="1">
-        <v>27.160493827160494</v>
+        <v>57.377049180327866</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1481,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>45</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,10 +1490,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11.35</v>
+        <v>5.5</v>
       </c>
       <c r="C12" s="1">
-        <v>29.078014184397162</v>
+        <v>36.645962732919259</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,10 +1502,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>5.7</v>
+        <v>5.65</v>
       </c>
       <c r="C13" s="1">
-        <v>40.909090909090914</v>
+        <v>41.401273885350321</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,10 +1514,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>6.95</v>
+        <v>5.6</v>
       </c>
       <c r="C14" s="1">
-        <v>32.947976878612714</v>
+        <v>42.702702702702702</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,10 +1526,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="C15" s="1">
-        <v>43.016759776536311</v>
+        <v>56.98924731182796</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,10 +1538,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>5.85</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>34.193548387096776</v>
+        <v>46.308724832214764</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1498,10 +1550,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5.45</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C17" s="1">
-        <v>34.265734265734267</v>
+        <v>10.16949152542373</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,10 +1562,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>6.35</v>
+        <v>6.1</v>
       </c>
       <c r="C18" s="1">
-        <v>26.086956521739129</v>
+        <v>36.315789473684212</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,10 +1574,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>6.85</v>
+        <v>6.5</v>
       </c>
       <c r="C19" s="1">
-        <v>33.766233766233768</v>
+        <v>20.14388489208633</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1534,10 +1586,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>5.75</v>
+        <v>9.1</v>
       </c>
       <c r="C20" s="1">
-        <v>38.285714285714285</v>
+        <v>28.378378378378379</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,10 +1598,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>6.25</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>31.788079470198678</v>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,10 +1610,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="C22" s="1">
-        <v>47.340425531914896</v>
+        <v>31.0126582278481</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1570,10 +1622,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="C23" s="1">
-        <v>24.691358024691358</v>
+        <v>40.645161290322577</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,10 +1634,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>5.7</v>
+        <v>5.95</v>
       </c>
       <c r="C24" s="1">
-        <v>48.803827751196174</v>
+        <v>39.361702127659576</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,10 +1646,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>4.75</v>
+        <v>5.8</v>
       </c>
       <c r="C25" s="1">
-        <v>42.857142857142854</v>
+        <v>31.168831168831169</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,10 +1658,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>5.2</v>
+        <v>9.5</v>
       </c>
       <c r="C26" s="1">
-        <v>34.228187919463089</v>
+        <v>18.493150684931507</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1618,10 +1670,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>5.55</v>
+        <v>12.35</v>
       </c>
       <c r="C27" s="1">
-        <v>42.857142857142854</v>
+        <v>11.206896551724139</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,10 +1682,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1">
-        <v>42.5</v>
+        <v>43.859649122807014</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,10 +1694,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1">
-        <v>44.720496894409941</v>
+        <v>47.619047619047613</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,10 +1706,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>37.837837837837839</v>
+        <v>36.413043478260867</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1666,10 +1718,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>5.6</v>
+        <v>4.75</v>
       </c>
       <c r="C31" s="1">
-        <v>45.856353591160222</v>
+        <v>43.225806451612904</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,10 +1730,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>5.95</v>
+        <v>5.75</v>
       </c>
       <c r="C32" s="1">
-        <v>29.452054794520549</v>
+        <v>47.311827956989248</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,10 +1742,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1">
-        <v>39.61038961038961</v>
+        <v>45.238095238095241</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,10 +1754,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>8.0500000000000007</v>
+        <v>4.25</v>
       </c>
       <c r="C34" s="1">
-        <v>26.174496644295303</v>
+        <v>56.999999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,10 +1766,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5.9</v>
+        <v>4.75</v>
       </c>
       <c r="C35" s="1">
-        <v>35.502958579881657</v>
+        <v>52.659574468085104</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,10 +1778,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>5.95</v>
+        <v>5.35</v>
       </c>
       <c r="C36" s="1">
-        <v>32.026143790849673</v>
+        <v>39.548022598870055</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,10 +1790,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4.6500000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="C37" s="1">
-        <v>50.251256281407031</v>
+        <v>43.636363636363633</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,10 +1802,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="C38" s="1">
-        <v>57.222222222222221</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,10 +1814,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>3.8</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C39" s="1">
-        <v>52.531645569620252</v>
+        <v>52.542372881355938</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,10 +1826,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>7.45</v>
+        <v>7.75</v>
       </c>
       <c r="C40" s="1">
-        <v>21.379310344827587</v>
+        <v>31.168831168831169</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,10 +1838,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="C41" s="1">
-        <v>46.195652173913047</v>
+        <v>45.405405405405411</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1798,10 +1850,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>6.35</v>
+        <v>7.25</v>
       </c>
       <c r="C42" s="1">
-        <v>42.541436464088399</v>
+        <v>32.121212121212125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1810,10 +1862,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>7.3</v>
+        <v>5.75</v>
       </c>
       <c r="C43" s="1">
-        <v>25.301204819277107</v>
+        <v>43.448275862068961</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1822,10 +1874,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>39.041095890410958</v>
+        <v>35.294117647058826</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,7 +1889,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C45" s="1">
-        <v>57.065217391304344</v>
+        <v>51.308900523560212</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1846,10 +1898,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>4.55</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C46" s="1">
-        <v>51.832460732984295</v>
+        <v>50.887573964497044</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,10 +1910,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>4.9000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="C47" s="1">
-        <v>44.848484848484851</v>
+        <v>38.926174496644293</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,10 +1922,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>7.15</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1">
-        <v>34.239130434782609</v>
+        <v>48.447204968944099</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1882,10 +1934,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>5.0999999999999996</v>
+        <v>5.45</v>
       </c>
       <c r="C49" s="1">
-        <v>50</v>
+        <v>41.025641025641022</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,10 +1946,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>5</v>
+        <v>2.85</v>
       </c>
       <c r="C50" s="1">
-        <v>43.75</v>
+        <v>60.479041916167667</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1906,10 +1958,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>5.75</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C51" s="1">
-        <v>40.384615384615387</v>
+        <v>45.549738219895289</v>
       </c>
     </row>
   </sheetData>
